--- a/07-Pandas-dataframes/07.03-Data-frameKey-Operations/new.xlsx
+++ b/07-Pandas-dataframes/07.03-Data-frameKey-Operations/new.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="weather_data" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,50 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>temperature</t>
-  </si>
-  <si>
-    <t>windspeed</t>
-  </si>
-  <si>
-    <t>event</t>
-  </si>
-  <si>
-    <t>1/1/2017</t>
-  </si>
-  <si>
-    <t>Rain</t>
-  </si>
-  <si>
-    <t>1/2/2017</t>
-  </si>
-  <si>
-    <t>Sunny</t>
-  </si>
-  <si>
-    <t>1/3/2017</t>
-  </si>
-  <si>
-    <t>Snow</t>
-  </si>
-  <si>
-    <t>1/4/2017</t>
-  </si>
-  <si>
-    <t>1/5/2017</t>
-  </si>
-  <si>
-    <t>1/6/2017</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,26 +366,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>temperature</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>windspeed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1/1/2017</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>32</v>
@@ -437,16 +403,20 @@
       <c r="D2" t="n">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Rain</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1/2/2017</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>35</v>
@@ -454,16 +424,20 @@
       <c r="D3" t="n">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Sunny</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1/3/2017</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>28</v>
@@ -471,16 +445,20 @@
       <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Snow</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1/4/2017</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>24</v>
@@ -488,16 +466,20 @@
       <c r="D5" t="n">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Snow</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1/5/2017</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>32</v>
@@ -505,16 +487,20 @@
       <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Rain</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1/6/2017</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>31</v>
@@ -522,8 +508,10 @@
       <c r="D7" t="n">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
-        <v>7</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sunny</t>
+        </is>
       </c>
     </row>
   </sheetData>
